--- a/features/backlog/android/push_notification_iphone.xlsx
+++ b/features/backlog/android/push_notification_iphone.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\backlog\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43478C2B-A05E-4FE8-8AB2-9A33E0691247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8712CCEE-D786-47C6-B8F2-8856BE258AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="notification_iPhone" sheetId="1" r:id="rId1"/>
+    <sheet name="notification_android" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -199,9 +199,6 @@
     <t>should performed as requirement</t>
   </si>
   <si>
-    <t>Test case scenario: Push Notification in iPhone</t>
-  </si>
-  <si>
     <t>check whether the notification if there is a schedule refer push notification an action that can be performed as requirement.</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>should logout from the app after tap on the push banner</t>
+  </si>
+  <si>
+    <t>Test case scenario: Push Notification in android</t>
   </si>
 </sst>
 </file>
@@ -1322,8 +1322,8 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1341,7 +1341,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1489,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>56</v>
@@ -1529,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>56</v>
@@ -1575,7 +1575,7 @@
         <v>56</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>7</v>
@@ -1615,7 +1615,7 @@
         <v>56</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>7</v>
@@ -1655,7 +1655,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>7</v>
@@ -1729,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>56</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>56</v>
@@ -2009,7 +2009,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>56</v>
@@ -2049,10 +2049,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>57</v>
@@ -2089,10 +2089,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>57</v>
@@ -2132,7 +2132,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>57</v>
@@ -2172,7 +2172,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>57</v>
@@ -2252,7 +2252,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>57</v>
@@ -2292,7 +2292,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>57</v>
